--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -446,12 +446,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -461,7 +461,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,10 +496,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,66 +555,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -573,18 +571,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,15 +593,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +638,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,43 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +728,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,91 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,25 +822,103 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,7 +941,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,181 +1019,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,17 +1179,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1149,7 +1264,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1505,7 +1620,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1518,185 +1633,185 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="b">
+      <c r="B3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="b">
+      <c r="D3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="E3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="b">
+      <c r="F3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="b">
+      <c r="G3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="b">
+      <c r="B4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="b">
+      <c r="D4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="b">
+      <c r="F4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="b">
+      <c r="G4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="b">
+      <c r="B5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="b">
+      <c r="F5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="b">
+      <c r="G5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="b">
+      <c r="B6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="b">
+      <c r="E6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="b">
+      <c r="G6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:8">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="5" customFormat="1" ht="54.75" spans="1:8">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4465,11 +4580,11 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 N1 N2 P2 Q2 M3:M1048576 N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L$1:L$1048576">
       <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
       <formula1>0</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>Id</t>
   </si>
@@ -387,21 +387,15 @@
     <t>Maptitle100</t>
   </si>
   <si>
+    <t>Station</t>
+  </si>
+  <si>
     <t>Row</t>
   </si>
   <si>
     <t>Col</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>SaveInterval</t>
-  </si>
-  <si>
-    <t>RelationValue</t>
-  </si>
-  <si>
     <t>GUID</t>
   </si>
   <si>
@@ -427,12 +421,6 @@
   </si>
   <si>
     <t>WinCount</t>
-  </si>
-  <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>Friend</t>
   </si>
   <si>
     <t>object</t>
@@ -446,10 +434,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -467,31 +455,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,6 +485,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -519,7 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,13 +568,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,13 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -562,50 +589,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,7 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,19 +650,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,19 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +728,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,25 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,49 +794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +826,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -853,7 +841,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -922,17 +910,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,16 +938,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,11 +978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,165 +1012,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,16 +1194,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,7 +1264,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1619,7 +1619,7 @@
   <sheetPr/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
@@ -1633,185 +1633,185 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:8">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="b">
+      <c r="B3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="b">
+      <c r="C3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="b">
+      <c r="D3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="b">
+      <c r="E3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="b">
+      <c r="F3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="10" t="b">
+      <c r="G3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="b">
+      <c r="H3" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="b">
+      <c r="B4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="b">
+      <c r="C4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="b">
+      <c r="D4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="b">
+      <c r="E4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="b">
+      <c r="F4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="b">
+      <c r="G4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="b">
+      <c r="H4" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:8">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="b">
+      <c r="B5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="b">
+      <c r="C5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="b">
+      <c r="D5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="10" t="b">
+      <c r="E5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="b">
+      <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="10" t="b">
+      <c r="G5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="10" t="b">
+      <c r="H5" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:8">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="b">
+      <c r="B6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="b">
+      <c r="C6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="b">
+      <c r="D6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="b">
+      <c r="E6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="b">
+      <c r="F6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="10" t="b">
+      <c r="G6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="b">
+      <c r="H6" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="54.75" spans="1:8">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="10" customFormat="1" ht="54.75" spans="1:8">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4430,163 +4430,166 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="13" max="14" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="20" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="14" width="12.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
+    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16.5" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="A8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
+      <c r="B10" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M1 N1 N2 P2 Q2 M3:M1048576 N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 D$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2 L$1:L$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 C8 C9 E9 F9 M10 N10 M1:M9 M11:M1048576 N1:N9 N11:N1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 L10 A8:A9 L1:L9 L11:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:C$1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 C11:C16374 A2:B3 B16375:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -457,12 +460,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,23 +523,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,9 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,60 +563,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,6 +580,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -598,8 +594,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,13 +629,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +725,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,19 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,120 +809,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -847,6 +850,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -904,8 +920,101 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,233 +1036,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,15 +1199,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1188,25 +1211,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1633,212 +1662,212 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:8">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="b">
+      <c r="B3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="b">
+      <c r="C3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="b">
+      <c r="D3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="b">
+      <c r="E3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="b">
+      <c r="F3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="b">
+      <c r="G3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="14" t="b">
+      <c r="H3" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:8">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="b">
+      <c r="B4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="b">
+      <c r="C4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="b">
+      <c r="D4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="b">
+      <c r="E4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="b">
+      <c r="F4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="14" t="b">
+      <c r="G4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="b">
+      <c r="H4" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:8">
-      <c r="A5" s="13" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:8">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="b">
+      <c r="B5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="b">
+      <c r="C5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="b">
+      <c r="D5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="b">
+      <c r="E5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="b">
+      <c r="F5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="b">
+      <c r="G5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="14" t="b">
+      <c r="H5" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:8">
-      <c r="A6" s="13" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:8">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14" t="b">
+      <c r="B6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="14" t="b">
+      <c r="C6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="14" t="b">
+      <c r="D6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="b">
+      <c r="E6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="b">
+      <c r="F6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="b">
+      <c r="G6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="14" t="b">
+      <c r="H6" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="54.75" spans="1:8">
-      <c r="A7" s="15" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:8">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="54.75" spans="1:8">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="H8" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>10000000</v>
-      </c>
-      <c r="D8">
-        <v>10000000</v>
-      </c>
-      <c r="E8">
-        <v>10000000</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1861,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1887,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1913,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1939,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1965,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1991,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2017,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2043,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2069,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2080,7 +2109,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>10000000</v>
@@ -2092,13 +2121,13 @@
         <v>10000000</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
         <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2121,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2147,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2173,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2199,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2225,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2251,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2277,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2303,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2329,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2340,7 +2369,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>10000000</v>
@@ -2352,13 +2381,13 @@
         <v>10000000</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2381,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -2407,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -2433,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -2459,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -2485,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -2511,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -2537,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -2563,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -2589,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -2600,7 +2629,7 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>10000000</v>
@@ -2612,13 +2641,13 @@
         <v>10000000</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2641,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -2667,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -2693,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -2719,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -2745,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -2771,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2797,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -2823,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -2849,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -2872,13 +2901,13 @@
         <v>10000000</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2901,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -2927,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -2953,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -2979,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -3005,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -3031,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -3057,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -3083,7 +3112,7 @@
         <v>5</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -3094,7 +3123,7 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <v>10000000</v>
@@ -3109,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -3132,13 +3161,13 @@
         <v>10000000</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3161,7 +3190,7 @@
         <v>6</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -3187,7 +3216,7 @@
         <v>6</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -3213,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -3239,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>6</v>
@@ -3265,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -3291,7 +3320,7 @@
         <v>6</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H64">
         <v>6</v>
@@ -3317,7 +3346,7 @@
         <v>6</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65">
         <v>6</v>
@@ -3343,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>6</v>
@@ -3354,7 +3383,7 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C67">
         <v>10000000</v>
@@ -3369,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>6</v>
@@ -3392,13 +3421,13 @@
         <v>10000000</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H68">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3421,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>7</v>
@@ -3447,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>7</v>
@@ -3473,7 +3502,7 @@
         <v>7</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -3499,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72">
         <v>7</v>
@@ -3525,7 +3554,7 @@
         <v>7</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H73">
         <v>7</v>
@@ -3551,7 +3580,7 @@
         <v>7</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -3577,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="G75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H75">
         <v>7</v>
@@ -3603,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -3614,7 +3643,7 @@
         <v>91</v>
       </c>
       <c r="B77">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <v>10000000</v>
@@ -3629,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>7</v>
@@ -3652,13 +3681,13 @@
         <v>10000000</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3681,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>8</v>
@@ -3707,7 +3736,7 @@
         <v>8</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>8</v>
@@ -3733,7 +3762,7 @@
         <v>8</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>8</v>
@@ -3759,7 +3788,7 @@
         <v>8</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>8</v>
@@ -3785,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83">
         <v>8</v>
@@ -3811,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H84">
         <v>8</v>
@@ -3837,7 +3866,7 @@
         <v>8</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H85">
         <v>8</v>
@@ -3863,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86">
         <v>8</v>
@@ -3874,7 +3903,7 @@
         <v>101</v>
       </c>
       <c r="B87">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87">
         <v>10000000</v>
@@ -3889,7 +3918,7 @@
         <v>8</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87">
         <v>8</v>
@@ -3912,13 +3941,13 @@
         <v>10000000</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3941,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>9</v>
@@ -3967,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>9</v>
@@ -3993,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91">
         <v>9</v>
@@ -4019,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>9</v>
@@ -4045,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93">
         <v>9</v>
@@ -4071,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H94">
         <v>9</v>
@@ -4097,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H95">
         <v>9</v>
@@ -4123,7 +4152,7 @@
         <v>9</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H96">
         <v>9</v>
@@ -4134,7 +4163,7 @@
         <v>111</v>
       </c>
       <c r="B97">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C97">
         <v>10000000</v>
@@ -4149,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H97">
         <v>9</v>
@@ -4172,13 +4201,13 @@
         <v>10000000</v>
       </c>
       <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98">
         <v>10</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4201,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>10</v>
@@ -4227,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>10</v>
@@ -4253,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>10</v>
@@ -4279,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>10</v>
@@ -4305,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="G103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H103">
         <v>10</v>
@@ -4331,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H104">
         <v>10</v>
@@ -4357,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="G105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H105">
         <v>10</v>
@@ -4383,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H106">
         <v>10</v>
@@ -4409,15 +4438,42 @@
         <v>10</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
     </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108">
+        <v>90</v>
+      </c>
+      <c r="C108">
+        <v>10000000</v>
+      </c>
+      <c r="D108">
+        <v>10000000</v>
+      </c>
+      <c r="E108">
+        <v>10000000</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 H7 F1:F4 F5:F6 F108:F1048576 H1:H4 H5:H6 H108:H1048576">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 H8 F1:F4 F5:F6 F109:F1048576 H1:H4 H5:H6 H109:H1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4432,8 +4488,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4459,31 +4515,31 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>122</v>
+      <c r="B1" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>123</v>
+      <c r="A2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>124</v>
+      <c r="A3" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -4491,7 +4547,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -4499,7 +4555,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -4507,7 +4563,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="b">
@@ -4515,69 +4571,69 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Record_Station" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -435,14 +448,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -456,159 +463,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,194 +483,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -938,251 +608,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,61 +667,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1307,12 +687,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1644,25 +1029,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1844,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="54.75" spans="1:8">
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1948,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1974,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2078,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2130,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2182,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2208,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2234,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2260,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2286,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2312,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2338,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2364,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2416,7 +1801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2442,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2468,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2494,7 +1879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2520,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2546,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2572,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2598,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2650,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2676,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2702,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2754,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2780,7 +2165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2806,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2832,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2884,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2910,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2936,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2962,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2988,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3014,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3040,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -3066,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -3092,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -3144,7 +2529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -3170,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -3196,7 +2581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -3222,7 +2607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -3248,7 +2633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3274,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3300,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3326,7 +2711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3352,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -3378,7 +2763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3404,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -3430,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -3456,7 +2841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -3482,7 +2867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -3508,7 +2893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -3534,7 +2919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3586,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -3612,7 +2997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3638,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -3664,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -3690,7 +3075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -3716,7 +3101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -3742,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -3768,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -3794,7 +3179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -3820,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -3846,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -3872,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -3898,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -3924,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -3950,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -3976,7 +3361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -4002,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -4028,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -4054,7 +3439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -4080,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -4106,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4132,7 +3517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -4158,7 +3543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -4184,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -4210,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -4236,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -4262,7 +3647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -4288,7 +3673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -4314,7 +3699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -4340,7 +3725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -4366,7 +3751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -4392,7 +3777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -4418,7 +3803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -4444,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -4477,35 +3862,34 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.75" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" style="3"/>
     <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
@@ -4514,7 +3898,7 @@
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +3906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -4530,7 +3914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
@@ -4538,7 +3922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4546,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4562,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4570,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -4599,7 +3983,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
@@ -4628,7 +4012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4649,8 +4033,7 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -443,13 +443,17 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -460,6 +464,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -668,7 +677,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -696,6 +705,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1030,24 +1042,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -1229,61 +1241,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10000000</v>
-      </c>
-      <c r="D9">
-        <v>10000000</v>
-      </c>
-      <c r="E9">
-        <v>10000000</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>24</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1301,15 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1327,15 +1339,15 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1353,15 +1365,15 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1379,15 +1391,15 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1405,15 +1417,15 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1431,15 +1443,15 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1457,15 +1469,15 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1483,15 +1495,15 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1509,41 +1521,41 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>10000000</v>
+      </c>
+      <c r="D19">
+        <v>10000000</v>
+      </c>
+      <c r="E19">
+        <v>10000000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>10000000</v>
-      </c>
-      <c r="D19">
-        <v>10000000</v>
-      </c>
-      <c r="E19">
-        <v>10000000</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>34</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1561,15 +1573,15 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1587,15 +1599,15 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1613,15 +1625,15 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -1639,15 +1651,15 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -1665,15 +1677,15 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -1691,15 +1703,15 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -1717,15 +1729,15 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -1743,15 +1755,15 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -1769,41 +1781,41 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>10000000</v>
+      </c>
+      <c r="D29">
+        <v>10000000</v>
+      </c>
+      <c r="E29">
+        <v>10000000</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>43</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>10000000</v>
-      </c>
-      <c r="D29">
-        <v>10000000</v>
-      </c>
-      <c r="E29">
-        <v>10000000</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>44</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1821,15 +1833,15 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1847,15 +1859,15 @@
         <v>3</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -1873,15 +1885,15 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -1899,15 +1911,15 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -1925,15 +1937,15 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -1951,15 +1963,15 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -1977,15 +1989,15 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2003,15 +2015,15 @@
         <v>3</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -2029,41 +2041,41 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>10000000</v>
+      </c>
+      <c r="D39">
+        <v>10000000</v>
+      </c>
+      <c r="E39">
+        <v>10000000</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>53</v>
-      </c>
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>10000000</v>
-      </c>
-      <c r="D39">
-        <v>10000000</v>
-      </c>
-      <c r="E39">
-        <v>10000000</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>54</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2081,15 +2093,15 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2107,15 +2119,15 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2133,15 +2145,15 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -2159,15 +2171,15 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -2185,15 +2197,15 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -2211,15 +2223,15 @@
         <v>4</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -2237,15 +2249,15 @@
         <v>4</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -2263,15 +2275,15 @@
         <v>4</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -2289,15 +2301,15 @@
         <v>4</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -2312,18 +2324,18 @@
         <v>10000000</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -2341,15 +2353,15 @@
         <v>5</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -2367,15 +2379,15 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -2393,15 +2405,15 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -2419,15 +2431,15 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -2445,15 +2457,15 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>40</v>
@@ -2471,15 +2483,15 @@
         <v>5</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -2497,15 +2509,15 @@
         <v>5</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -2523,18 +2535,18 @@
         <v>5</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>10000000</v>
@@ -2549,15 +2561,15 @@
         <v>5</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -2572,18 +2584,18 @@
         <v>10000000</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>50</v>
@@ -2601,15 +2613,15 @@
         <v>6</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>50</v>
@@ -2627,15 +2639,15 @@
         <v>6</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -2653,15 +2665,15 @@
         <v>6</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>50</v>
@@ -2679,15 +2691,15 @@
         <v>6</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>50</v>
@@ -2705,15 +2717,15 @@
         <v>6</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>50</v>
@@ -2731,15 +2743,15 @@
         <v>6</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -2757,15 +2769,15 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>50</v>
@@ -2783,18 +2795,18 @@
         <v>6</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C68">
         <v>10000000</v>
@@ -2809,15 +2821,15 @@
         <v>6</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>60</v>
@@ -2832,18 +2844,18 @@
         <v>10000000</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -2861,15 +2873,15 @@
         <v>7</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>60</v>
@@ -2887,15 +2899,15 @@
         <v>7</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>60</v>
@@ -2913,15 +2925,15 @@
         <v>7</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>60</v>
@@ -2939,15 +2951,15 @@
         <v>7</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>60</v>
@@ -2965,15 +2977,15 @@
         <v>7</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>60</v>
@@ -2991,15 +3003,15 @@
         <v>7</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H75">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>60</v>
@@ -3017,15 +3029,15 @@
         <v>7</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H76">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>60</v>
@@ -3043,18 +3055,18 @@
         <v>7</v>
       </c>
       <c r="G77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C78">
         <v>10000000</v>
@@ -3069,15 +3081,15 @@
         <v>7</v>
       </c>
       <c r="G78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>70</v>
@@ -3092,18 +3104,18 @@
         <v>10000000</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>70</v>
@@ -3121,15 +3133,15 @@
         <v>8</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>70</v>
@@ -3147,15 +3159,15 @@
         <v>8</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -3173,15 +3185,15 @@
         <v>8</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>70</v>
@@ -3199,15 +3211,15 @@
         <v>8</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H83">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -3225,15 +3237,15 @@
         <v>8</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>70</v>
@@ -3251,15 +3263,15 @@
         <v>8</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H85">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>70</v>
@@ -3277,15 +3289,15 @@
         <v>8</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H86">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>70</v>
@@ -3303,18 +3315,18 @@
         <v>8</v>
       </c>
       <c r="G87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H87">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C88">
         <v>10000000</v>
@@ -3329,15 +3341,15 @@
         <v>8</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H88">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>80</v>
@@ -3352,18 +3364,18 @@
         <v>10000000</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>80</v>
@@ -3381,15 +3393,15 @@
         <v>9</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>80</v>
@@ -3407,15 +3419,15 @@
         <v>9</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>80</v>
@@ -3433,15 +3445,15 @@
         <v>9</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>80</v>
@@ -3459,15 +3471,15 @@
         <v>9</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>80</v>
@@ -3485,15 +3497,15 @@
         <v>9</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>80</v>
@@ -3511,15 +3523,15 @@
         <v>9</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>80</v>
@@ -3537,15 +3549,15 @@
         <v>9</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H96">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>80</v>
@@ -3563,41 +3575,41 @@
         <v>9</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98">
+        <v>80</v>
+      </c>
+      <c r="C98">
+        <v>10000000</v>
+      </c>
+      <c r="D98">
+        <v>10000000</v>
+      </c>
+      <c r="E98">
+        <v>10000000</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>112</v>
-      </c>
-      <c r="B98">
-        <v>90</v>
-      </c>
-      <c r="C98">
-        <v>10000000</v>
-      </c>
-      <c r="D98">
-        <v>10000000</v>
-      </c>
-      <c r="E98">
-        <v>10000000</v>
-      </c>
-      <c r="F98">
-        <v>9</v>
-      </c>
-      <c r="G98">
-        <v>10</v>
-      </c>
-      <c r="H98">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>113</v>
       </c>
       <c r="B99">
         <v>90</v>
@@ -3612,18 +3624,18 @@
         <v>10000000</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>90</v>
@@ -3641,15 +3653,15 @@
         <v>10</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>90</v>
@@ -3667,15 +3679,15 @@
         <v>10</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>90</v>
@@ -3693,15 +3705,15 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>90</v>
@@ -3719,15 +3731,15 @@
         <v>10</v>
       </c>
       <c r="G103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>90</v>
@@ -3745,15 +3757,15 @@
         <v>10</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>90</v>
@@ -3771,15 +3783,15 @@
         <v>10</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H105">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>90</v>
@@ -3797,15 +3809,15 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H106">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>90</v>
@@ -3823,15 +3835,15 @@
         <v>10</v>
       </c>
       <c r="G107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>90</v>
@@ -3849,16 +3861,43 @@
         <v>10</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H108">
         <v>10</v>
       </c>
     </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109">
+        <v>90</v>
+      </c>
+      <c r="C109">
+        <v>10000000</v>
+      </c>
+      <c r="D109">
+        <v>10000000</v>
+      </c>
+      <c r="E109">
+        <v>10000000</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>10</v>
+      </c>
+      <c r="H109">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 H8 F1:F4 F5:F6 F109:F1048576 H1:H4 H5:H6 H109:H1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H110:H1048576 F9 H9 F1:F6 F110:F1048576 H1:H6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3876,29 +3915,29 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6328125" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" style="3" customWidth="1"/>
     <col min="18" max="18" width="14" style="3" customWidth="1"/>
-    <col min="19" max="20" width="16.5" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16.453125" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +3945,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
@@ -3914,7 +3953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
@@ -3922,7 +3961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3930,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3938,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3946,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -3983,7 +4022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
@@ -4012,7 +4051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4021,6 +4060,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576">
       <formula1>"TRUE,FALSE"</formula1>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -443,6 +443,10 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Upload</t>
@@ -1044,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
@@ -3909,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3995,81 +3999,89 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G1048576 A4:B6 D1:G8 B7:B8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 C8 C9 E9 F9 M10 N10 M1:M9 M11:M1048576 N1:N9 N11:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 L10 A8:A9 L1:L9 L11:L1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 C9:C10 E10:F10 M1:N1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 C11:C16374 A2:B3 B16375:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C11:C16375 A2:B3 B16376:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Map.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540" activeTab="1"/>
+    <workbookView windowWidth="20730" windowHeight="9172"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,19 +15,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>Id</t>
   </si>
@@ -49,12 +36,6 @@
     <t>InComeOil</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>MapLevel</t>
   </si>
   <si>
@@ -79,6 +60,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -94,12 +78,6 @@
     <t>收益石油/小时</t>
   </si>
   <si>
-    <t>UI-X</t>
-  </si>
-  <si>
-    <t>UI-Y</t>
-  </si>
-  <si>
     <t>Level决定收益，展示给玩家争夺</t>
   </si>
   <si>
@@ -443,21 +421,19 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -472,12 +448,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +618,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -621,9 +929,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -680,13 +1230,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -700,20 +1298,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1040,30 +1630,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="F$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
+    <col min="2" max="2" width="18.6371681415929" customWidth="1"/>
+    <col min="3" max="3" width="11.4513274336283" customWidth="1"/>
+    <col min="4" max="4" width="14.8141592920354" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1082,42 +1672,30 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:6">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:6">
+      <c r="A3" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="13" t="b">
         <v>0</v>
@@ -1134,16 +1712,10 @@
       <c r="F3" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13" t="b">
         <v>1</v>
@@ -1160,16 +1732,10 @@
       <c r="F4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="13" t="b">
         <v>1</v>
@@ -1186,16 +1752,10 @@
       <c r="F5" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="b">
         <v>0</v>
@@ -1212,16 +1772,10 @@
       <c r="F6" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="b">
         <v>0</v>
@@ -1238,16 +1792,10 @@
       <c r="F7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="b">
         <v>0</v>
@@ -1264,42 +1812,30 @@
       <c r="F8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" s="9" customFormat="1" ht="54.75" spans="1:6">
       <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1316,16 +1852,10 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1342,16 +1872,10 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1368,16 +1892,10 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1394,16 +1912,10 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1420,16 +1932,10 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1446,16 +1952,10 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1472,16 +1972,10 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1498,16 +1992,10 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1524,16 +2012,10 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1550,16 +2032,10 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -1576,16 +2052,10 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1602,16 +2072,10 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1628,16 +2092,10 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -1654,16 +2112,10 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -1680,16 +2132,10 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -1706,16 +2152,10 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -1732,16 +2172,10 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -1758,16 +2192,10 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -1784,16 +2212,10 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -1810,16 +2232,10 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1836,16 +2252,10 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1862,16 +2272,10 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -1888,16 +2292,10 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -1914,16 +2312,10 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -1940,16 +2332,10 @@
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -1966,16 +2352,10 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -1992,16 +2372,10 @@
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>7</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2018,16 +2392,10 @@
       <c r="F37">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>8</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -2044,16 +2412,10 @@
       <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>9</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -2070,16 +2432,10 @@
       <c r="F39">
         <v>3</v>
       </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2096,16 +2452,10 @@
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2122,16 +2472,10 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2148,16 +2492,10 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -2174,16 +2512,10 @@
       <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -2200,16 +2532,10 @@
       <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -2226,16 +2552,10 @@
       <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -2252,16 +2572,10 @@
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="G46">
-        <v>7</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -2278,16 +2592,10 @@
       <c r="F47">
         <v>4</v>
       </c>
-      <c r="G47">
-        <v>8</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -2304,16 +2612,10 @@
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>9</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -2330,16 +2632,10 @@
       <c r="F49">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -2356,16 +2652,10 @@
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -2382,16 +2672,10 @@
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -2408,16 +2692,10 @@
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -2434,16 +2712,10 @@
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -2460,16 +2732,10 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>40</v>
@@ -2486,16 +2752,10 @@
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -2512,16 +2772,10 @@
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56">
-        <v>7</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -2538,16 +2792,10 @@
       <c r="F57">
         <v>5</v>
       </c>
-      <c r="G57">
-        <v>8</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -2564,16 +2812,10 @@
       <c r="F58">
         <v>5</v>
       </c>
-      <c r="G58">
-        <v>9</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -2590,16 +2832,10 @@
       <c r="F59">
         <v>5</v>
       </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>50</v>
@@ -2616,16 +2852,10 @@
       <c r="F60">
         <v>6</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>50</v>
@@ -2642,16 +2872,10 @@
       <c r="F61">
         <v>6</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -2668,16 +2892,10 @@
       <c r="F62">
         <v>6</v>
       </c>
-      <c r="G62">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>50</v>
@@ -2694,16 +2912,10 @@
       <c r="F63">
         <v>6</v>
       </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-      <c r="H63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>50</v>
@@ -2720,16 +2932,10 @@
       <c r="F64">
         <v>6</v>
       </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>50</v>
@@ -2746,16 +2952,10 @@
       <c r="F65">
         <v>6</v>
       </c>
-      <c r="G65">
-        <v>6</v>
-      </c>
-      <c r="H65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -2772,16 +2972,10 @@
       <c r="F66">
         <v>6</v>
       </c>
-      <c r="G66">
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>50</v>
@@ -2798,16 +2992,10 @@
       <c r="F67">
         <v>6</v>
       </c>
-      <c r="G67">
-        <v>8</v>
-      </c>
-      <c r="H67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>50</v>
@@ -2824,16 +3012,10 @@
       <c r="F68">
         <v>6</v>
       </c>
-      <c r="G68">
-        <v>9</v>
-      </c>
-      <c r="H68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>60</v>
@@ -2850,16 +3032,10 @@
       <c r="F69">
         <v>6</v>
       </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -2876,16 +3052,10 @@
       <c r="F70">
         <v>7</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>60</v>
@@ -2902,16 +3072,10 @@
       <c r="F71">
         <v>7</v>
       </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>60</v>
@@ -2928,16 +3092,10 @@
       <c r="F72">
         <v>7</v>
       </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>60</v>
@@ -2954,16 +3112,10 @@
       <c r="F73">
         <v>7</v>
       </c>
-      <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>60</v>
@@ -2980,16 +3132,10 @@
       <c r="F74">
         <v>7</v>
       </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>60</v>
@@ -3006,16 +3152,10 @@
       <c r="F75">
         <v>7</v>
       </c>
-      <c r="G75">
-        <v>6</v>
-      </c>
-      <c r="H75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>60</v>
@@ -3032,16 +3172,10 @@
       <c r="F76">
         <v>7</v>
       </c>
-      <c r="G76">
-        <v>7</v>
-      </c>
-      <c r="H76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>60</v>
@@ -3058,16 +3192,10 @@
       <c r="F77">
         <v>7</v>
       </c>
-      <c r="G77">
-        <v>8</v>
-      </c>
-      <c r="H77">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>60</v>
@@ -3084,16 +3212,10 @@
       <c r="F78">
         <v>7</v>
       </c>
-      <c r="G78">
-        <v>9</v>
-      </c>
-      <c r="H78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>70</v>
@@ -3110,16 +3232,10 @@
       <c r="F79">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
-      <c r="H79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B80">
         <v>70</v>
@@ -3136,16 +3252,10 @@
       <c r="F80">
         <v>8</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B81">
         <v>70</v>
@@ -3162,16 +3272,10 @@
       <c r="F81">
         <v>8</v>
       </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-      <c r="H81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -3188,16 +3292,10 @@
       <c r="F82">
         <v>8</v>
       </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>70</v>
@@ -3214,16 +3312,10 @@
       <c r="F83">
         <v>8</v>
       </c>
-      <c r="G83">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -3240,16 +3332,10 @@
       <c r="F84">
         <v>8</v>
       </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="H84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85">
         <v>70</v>
@@ -3266,16 +3352,10 @@
       <c r="F85">
         <v>8</v>
       </c>
-      <c r="G85">
-        <v>6</v>
-      </c>
-      <c r="H85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>70</v>
@@ -3292,16 +3372,10 @@
       <c r="F86">
         <v>8</v>
       </c>
-      <c r="G86">
-        <v>7</v>
-      </c>
-      <c r="H86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>70</v>
@@ -3318,16 +3392,10 @@
       <c r="F87">
         <v>8</v>
       </c>
-      <c r="G87">
-        <v>8</v>
-      </c>
-      <c r="H87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>70</v>
@@ -3344,16 +3412,10 @@
       <c r="F88">
         <v>8</v>
       </c>
-      <c r="G88">
-        <v>9</v>
-      </c>
-      <c r="H88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>80</v>
@@ -3370,16 +3432,10 @@
       <c r="F89">
         <v>8</v>
       </c>
-      <c r="G89">
-        <v>10</v>
-      </c>
-      <c r="H89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>80</v>
@@ -3396,16 +3452,10 @@
       <c r="F90">
         <v>9</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>80</v>
@@ -3422,16 +3472,10 @@
       <c r="F91">
         <v>9</v>
       </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>80</v>
@@ -3448,16 +3492,10 @@
       <c r="F92">
         <v>9</v>
       </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>80</v>
@@ -3474,16 +3512,10 @@
       <c r="F93">
         <v>9</v>
       </c>
-      <c r="G93">
-        <v>4</v>
-      </c>
-      <c r="H93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>80</v>
@@ -3500,16 +3532,10 @@
       <c r="F94">
         <v>9</v>
       </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B95">
         <v>80</v>
@@ -3526,16 +3552,10 @@
       <c r="F95">
         <v>9</v>
       </c>
-      <c r="G95">
-        <v>6</v>
-      </c>
-      <c r="H95">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>80</v>
@@ -3552,16 +3572,10 @@
       <c r="F96">
         <v>9</v>
       </c>
-      <c r="G96">
-        <v>7</v>
-      </c>
-      <c r="H96">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>80</v>
@@ -3578,16 +3592,10 @@
       <c r="F97">
         <v>9</v>
       </c>
-      <c r="G97">
-        <v>8</v>
-      </c>
-      <c r="H97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>80</v>
@@ -3604,16 +3612,10 @@
       <c r="F98">
         <v>9</v>
       </c>
-      <c r="G98">
-        <v>9</v>
-      </c>
-      <c r="H98">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B99">
         <v>90</v>
@@ -3630,16 +3632,10 @@
       <c r="F99">
         <v>9</v>
       </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>90</v>
@@ -3656,16 +3652,10 @@
       <c r="F100">
         <v>10</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>90</v>
@@ -3682,16 +3672,10 @@
       <c r="F101">
         <v>10</v>
       </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-      <c r="H101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>90</v>
@@ -3708,16 +3692,10 @@
       <c r="F102">
         <v>10</v>
       </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>90</v>
@@ -3734,16 +3712,10 @@
       <c r="F103">
         <v>10</v>
       </c>
-      <c r="G103">
-        <v>4</v>
-      </c>
-      <c r="H103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>90</v>
@@ -3760,16 +3732,10 @@
       <c r="F104">
         <v>10</v>
       </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-      <c r="H104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B105">
         <v>90</v>
@@ -3786,16 +3752,10 @@
       <c r="F105">
         <v>10</v>
       </c>
-      <c r="G105">
-        <v>6</v>
-      </c>
-      <c r="H105">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B106">
         <v>90</v>
@@ -3812,16 +3772,10 @@
       <c r="F106">
         <v>10</v>
       </c>
-      <c r="G106">
-        <v>7</v>
-      </c>
-      <c r="H106">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B107">
         <v>90</v>
@@ -3838,16 +3792,10 @@
       <c r="F107">
         <v>10</v>
       </c>
-      <c r="G107">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B108">
         <v>90</v>
@@ -3864,16 +3812,10 @@
       <c r="F108">
         <v>10</v>
       </c>
-      <c r="G108">
-        <v>9</v>
-      </c>
-      <c r="H108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B109">
         <v>90</v>
@@ -3890,202 +3832,196 @@
       <c r="F109">
         <v>10</v>
       </c>
-      <c r="G109">
-        <v>10</v>
-      </c>
-      <c r="H109">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H110:H1048576 F9 H9 F1:F6 F110:F1048576 H1:H6 B7:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 F1:F6 F110:F1048576 B7:E8 F7:H8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.1769911504425" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.8141592920354" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6371681415929" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.4513274336283" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6371681415929" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.36283185840708" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.3628318584071" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1769911504425" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.6328125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6371681415929" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="16.453125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.4513274336283" style="3" customWidth="1"/>
     <col min="18" max="18" width="14" style="3" customWidth="1"/>
-    <col min="19" max="20" width="16.453125" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16.4513274336283" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="2" customFormat="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="2" customFormat="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" s="2" customFormat="1" spans="1:9">
       <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G1048576 A4:B6 D1:G8 B7:B8">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 E10:F10 C9:C10 M$1:N$1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L$1:L$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 D11:G1048576 A4:B6 D1:G8">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 C9:C10 E10:F10 M1:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L1:L1048576">
-      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C11:C16375 A2:B3 B16376:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>